--- a/biology/Botanique/Patáta_Káto_Nevrokopíou/Patáta_Káto_Nevrokopíou.xlsx
+++ b/biology/Botanique/Patáta_Káto_Nevrokopíou/Patáta_Káto_Nevrokopíou.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pat%C3%A1ta_K%C3%A1to_Nevrokop%C3%ADou</t>
+          <t>Patáta_Káto_Nevrokopíou</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Patáta Káto Nevrokopíou (en grec moderne : Πατάτα Κάτω Νευροκοπίου : pomme de terre de Káto Nevrokópi) est une indication géographique protégée (IGP) qui s'applique à une production de pommes de terre de la région de Macédoine-Orientale-et-Thrace en (Grèce). Cette production a été enregistrée comme indication géographique protégée (IGP) au niveau européen le 26 mars 2002[1],[2]. 
-Les principales variétés cultivées sont « Agria », « Liseta » et « Spunta »[2]. Il s'agit d'une culture d'été le plus souvent irriguée[2]. 
-L'aire de production se situe dans la préfecture de Dráma (région de Macédoine-Orientale-et-Thrace) et couvre environ 3 500 hectares dans les communes de Chrissokéfalos, Dassotó, Katáfyto, Káto Nevrokópi, Káto Vrondoú, Lefkóya, Ochyró, Perithóri et Vathýtopos[2].
+Patáta Káto Nevrokopíou (en grec moderne : Πατάτα Κάτω Νευροκοπίου : pomme de terre de Káto Nevrokópi) est une indication géographique protégée (IGP) qui s'applique à une production de pommes de terre de la région de Macédoine-Orientale-et-Thrace en (Grèce). Cette production a été enregistrée comme indication géographique protégée (IGP) au niveau européen le 26 mars 2002,. 
+Les principales variétés cultivées sont « Agria », « Liseta » et « Spunta ». Il s'agit d'une culture d'été le plus souvent irriguée. 
+L'aire de production se situe dans la préfecture de Dráma (région de Macédoine-Orientale-et-Thrace) et couvre environ 3 500 hectares dans les communes de Chrissokéfalos, Dassotó, Katáfyto, Káto Nevrokópi, Káto Vrondoú, Lefkóya, Ochyró, Perithóri et Vathýtopos.
 </t>
         </is>
       </c>
